--- a/biology/Zoologie/Bombus_pascuorum/Bombus_pascuorum.xlsx
+++ b/biology/Zoologie/Bombus_pascuorum/Bombus_pascuorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bourdon des champs
 Bombus pascuorum, le bourdon des champs, est une espèce d'insectes hyménoptères de la famille des Apidae, du genre Bombus et du sous-genre Thoracobombus.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce jaune orangé sur le dessus du thorax, gris foncé sur les 4 premiers segments abdominaux puis pilosité jaune orangé des 2 derniers segments de l'abdomen. Pelage ébouriffé et peu serré.
 Taille :
@@ -524,13 +538,6 @@
 			Bombus pascuorumvu de face
 			Bombus pascuorum
 			Bombus pascuorumvu de face
-Habitat
-Milieux à végétation assez basse et lisières. La colonie niche dans les cavités du sol, sous du bois mort ou de grosses touffes d'herbe ; souvent rencontrée dans des nids d'oiseaux[1] (nichoirs pour mésanges).
-Distribution
-Espèce commune dans toute l'Europe. On la trouve approximativement d'avril à octobre, c'est un des derniers bourdons à disparaître en automne.
-Mœurs
-Le pollen est stocké dans des poches accolées aux cellules de couvain.
-Au début de la saison, la reine engendre des ouvrières impropres à la reproduction. Celles-ci vont l'aider à agrandir le nid et à nourrir d'autres larves. Des mâles et des femelles complètement développées naissent à partir de juillet-août. Les colonies atteignent alors 130 à 150 individus. La vieille reine meurt en septembre-octobre et la colonie périclite[2]. Seules quelques jeunes reines, fécondées, hivernent et refondent de nouvelles colonies au printemps.
 </t>
         </is>
       </c>
@@ -556,14 +563,163 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Milieux à végétation assez basse et lisières. La colonie niche dans les cavités du sol, sous du bois mort ou de grosses touffes d'herbe ; souvent rencontrée dans des nids d'oiseaux (nichoirs pour mésanges).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bombus_pascuorum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bombus_pascuorum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espèce commune dans toute l'Europe. On la trouve approximativement d'avril à octobre, c'est un des derniers bourdons à disparaître en automne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bombus_pascuorum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bombus_pascuorum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mœurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pollen est stocké dans des poches accolées aux cellules de couvain.
+Au début de la saison, la reine engendre des ouvrières impropres à la reproduction. Celles-ci vont l'aider à agrandir le nid et à nourrir d'autres larves. Des mâles et des femelles complètement développées naissent à partir de juillet-août. Les colonies atteignent alors 130 à 150 individus. La vieille reine meurt en septembre-octobre et la colonie périclite. Seules quelques jeunes reines, fécondées, hivernent et refondent de nouvelles colonies au printemps.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bombus_pascuorum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bombus_pascuorum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'espèce Bombus pascuorum a été décrite par l’entomologiste autrichien Giovanni Antonio Scopoli en 1763, sous le nom initial d'Apis pascuorum.
-Synonymie
-Apis pascuorum Scopoli, 1763 protonyme
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Bombus pascuorum a été décrite par l’entomologiste autrichien Giovanni Antonio Scopoli en 1763, sous le nom initial d'Apis pascuorum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bombus_pascuorum</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bombus_pascuorum</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Apis pascuorum Scopoli, 1763 protonyme
 Apis senilis Fabricius, 1775
 Apis agrorum Fabricius, 1787
 Bombus thoracicus Spinola, 1806
